--- a/seleniumPoC/src/test/java/com/robinsinghdev/app/data.xlsx
+++ b/seleniumPoC/src/test/java/com/robinsinghdev/app/data.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="login" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="search" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,45 +20,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t xml:space="preserve">username</t>
-  </si>
-  <si>
-    <t xml:space="preserve">password</t>
-  </si>
-  <si>
-    <t xml:space="preserve">naveen1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tom1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test9090</t>
-  </si>
-  <si>
-    <t xml:space="preserve">peter1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pass123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">steve</t>
-  </si>
-  <si>
-    <t xml:space="preserve">steve345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kalie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kali12333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t xml:space="preserve">Search Item Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smartphone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Realme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">watches</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Titan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samsung</t>
   </si>
 </sst>
 </file>
@@ -73,6 +70,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -238,11 +236,14 @@
   </sheetPr>
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H12" activeCellId="0" sqref="H12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.61"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -251,51 +252,45 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="0" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="C4" s="0" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="0" t="s">
-        <v>12</v>
-      </c>
+      <c r="C12" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
